--- a/xlsx/数字中的真相_intext.xlsx
+++ b/xlsx/数字中的真相_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>数字中的真相</t>
   </si>
@@ -29,7 +29,7 @@
     <t>en-Scott Glosserman</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_数字中的真相</t>
+    <t>政策_政策_维基百科_数字中的真相</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nic_Hill</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%80%E9%8C%84%E7%89%87</t>
   </si>
   <si>
-    <t>紀錄片</t>
+    <t>纪录片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E5%A3%AB</t>
   </si>
   <si>
-    <t>吉米·威爾士</t>
+    <t>吉米·威尔士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%87%8C%C2%B7%E6%A1%91%E6%A0%BC</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華盛頓郵報</t>
+    <t>华盛顿邮报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Len_Downie</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>CBS新聞台</t>
+    <t>CBS新闻台</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bob_Schieffer</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>中央情報局</t>
+    <t>中央情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E4%BC%8D%E7%88%BE%E8%A5%BF</t>
   </si>
   <si>
-    <t>小羅伯特·詹姆斯·伍爾西</t>
+    <t>小罗伯特·詹姆斯·伍尔西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Essjay%E4%BA%8B%E4%BB%B6</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維基媒體國際會議</t>
+    <t>维基媒体国际会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paley_Center_for_Media</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%87%A1%E7%B4%8D%E8%97%9D%E8%A1%93%E8%A8%AD%E8%A8%88%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>薩凡納藝術設計學院</t>
+    <t>萨凡纳艺术设计学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
@@ -245,13 +245,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%B1%80</t>
   </si>
   <si>
-    <t>奧斯汀</t>
+    <t>奥斯汀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
@@ -317,9 +314,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
   </si>
   <si>
-    <t>纽约市</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%85%8B</t>
   </si>
   <si>
@@ -389,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%9C%89%E9%97%9C%E7%9A%84%E9%9B%BB%E5%BD%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>和維基百科有關的電影列表</t>
+    <t>和维基百科有关的电影列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%BE%B7%E6%84%8F%E5%BF%97%E6%8A%A5</t>
@@ -413,9 +407,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>维基百科</t>
-  </si>
-  <si>
     <t>https://zh.wikiquote.org/wiki/Truth_in_Numbers%3F</t>
   </si>
   <si>
@@ -431,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%9B%E7%95%AA%E8%8C%84</t>
   </si>
   <si>
-    <t>爛番茄</t>
+    <t>烂番茄</t>
   </si>
 </sst>
 </file>
@@ -1875,7 +1866,7 @@
         <v>75</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="G38" t="n">
         <v>8</v>
@@ -1901,10 +1892,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1930,10 +1921,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1959,10 +1950,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1988,10 +1979,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2017,10 +2008,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -2046,10 +2037,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2075,10 +2066,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2104,10 +2095,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2133,10 +2124,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2162,10 +2153,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2191,10 +2182,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2220,10 +2211,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2249,10 +2240,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2278,10 +2269,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2307,10 +2298,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2336,10 +2327,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2365,10 +2356,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2394,10 +2385,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2423,10 +2414,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2452,10 +2443,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2481,10 +2472,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2510,10 +2501,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -2539,10 +2530,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2568,10 +2559,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2597,10 +2588,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2626,10 +2617,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2655,10 +2646,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2684,10 +2675,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2713,10 +2704,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="G67" t="n">
         <v>14</v>
@@ -2742,10 +2733,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>5</v>
@@ -2771,10 +2762,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2800,10 +2791,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
